--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H2">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I2">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J2">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.5090796114111111</v>
+        <v>0.08274836466</v>
       </c>
       <c r="R2">
-        <v>4.5817165027</v>
+        <v>0.74473528194</v>
       </c>
       <c r="S2">
-        <v>0.002538655761883128</v>
+        <v>0.0004645611952895048</v>
       </c>
       <c r="T2">
-        <v>0.002904716561196677</v>
+        <v>0.000499667886767823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H3">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I3">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J3">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
-        <v>2.644206613973555</v>
+        <v>0.5086566271149999</v>
       </c>
       <c r="R3">
-        <v>23.797859525762</v>
+        <v>4.577909644035</v>
       </c>
       <c r="S3">
-        <v>0.01318601296478268</v>
+        <v>0.002855671307286864</v>
       </c>
       <c r="T3">
-        <v>0.01508736663317712</v>
+        <v>0.003071473170561151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H4">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I4">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J4">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>2.006270773560445</v>
+        <v>0.49761691343</v>
       </c>
       <c r="R4">
-        <v>18.056436962044</v>
+        <v>4.47855222087</v>
       </c>
       <c r="S4">
-        <v>0.01000478264112578</v>
+        <v>0.002793692770233833</v>
       </c>
       <c r="T4">
-        <v>0.01144741964042188</v>
+        <v>0.003004810941885444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H5">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I5">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J5">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>3.165831172012666</v>
+        <v>0.3054567450675</v>
       </c>
       <c r="R5">
-        <v>18.994987032076</v>
+        <v>1.832740470405</v>
       </c>
       <c r="S5">
-        <v>0.01578722731342872</v>
+        <v>0.001714878006119612</v>
       </c>
       <c r="T5">
-        <v>0.01204244160005812</v>
+        <v>0.001229647070641822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H6">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I6">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J6">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>1.332491576982667</v>
+        <v>0.591585291245</v>
       </c>
       <c r="R6">
-        <v>11.992424192844</v>
+        <v>5.324267621205</v>
       </c>
       <c r="S6">
-        <v>0.006644810249208796</v>
+        <v>0.003321244729677623</v>
       </c>
       <c r="T6">
-        <v>0.007602956913925528</v>
+        <v>0.003572229778000743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>16.311022</v>
       </c>
       <c r="I7">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J7">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N7">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O7">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P7">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q7">
-        <v>6.676010687811112</v>
+        <v>5.641069092568</v>
       </c>
       <c r="R7">
-        <v>60.08409619030001</v>
+        <v>50.76962183311201</v>
       </c>
       <c r="S7">
-        <v>0.03329163576601865</v>
+        <v>0.03166977149484216</v>
       </c>
       <c r="T7">
-        <v>0.03809211442166924</v>
+        <v>0.03406304262538804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>16.311022</v>
       </c>
       <c r="I8">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J8">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P8">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q8">
         <v>34.67581733775756</v>
@@ -948,10 +948,10 @@
         <v>312.082356039818</v>
       </c>
       <c r="S8">
-        <v>0.1729198371125019</v>
+        <v>0.1946750152254814</v>
       </c>
       <c r="T8">
-        <v>0.1978539675058314</v>
+        <v>0.2093865231330646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>16.311022</v>
       </c>
       <c r="I9">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J9">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N9">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O9">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P9">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q9">
-        <v>26.31000108176845</v>
+        <v>33.92322497034178</v>
       </c>
       <c r="R9">
-        <v>236.790009735916</v>
+        <v>305.309024733076</v>
       </c>
       <c r="S9">
-        <v>0.1312015534392408</v>
+        <v>0.1904498536623618</v>
       </c>
       <c r="T9">
-        <v>0.1501201269001505</v>
+        <v>0.2048420679118726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>16.311022</v>
       </c>
       <c r="I10">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J10">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N10">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O10">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P10">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q10">
-        <v>41.51634099346067</v>
+        <v>20.82340371071567</v>
       </c>
       <c r="R10">
-        <v>249.098045960764</v>
+        <v>124.940422264294</v>
       </c>
       <c r="S10">
-        <v>0.2070318588937567</v>
+        <v>0.1169055770176713</v>
       </c>
       <c r="T10">
-        <v>0.1579231755254979</v>
+        <v>0.08382672108947949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>16.311022</v>
       </c>
       <c r="I11">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J11">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N11">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O11">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P11">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q11">
-        <v>17.47413923079067</v>
+        <v>40.32917769157045</v>
       </c>
       <c r="R11">
-        <v>157.267253077116</v>
+        <v>362.9625992241341</v>
       </c>
       <c r="S11">
-        <v>0.08713926711626017</v>
+        <v>0.2264137916250006</v>
       </c>
       <c r="T11">
-        <v>0.09970429079970496</v>
+        <v>0.2435237853343583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H12">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I12">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J12">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N12">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O12">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P12">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q12">
-        <v>0.7892993691500002</v>
+        <v>1.21410438342</v>
       </c>
       <c r="R12">
-        <v>7.103694322350001</v>
+        <v>10.92693945078</v>
       </c>
       <c r="S12">
-        <v>0.003936043295446799</v>
+        <v>0.006816156257411437</v>
       </c>
       <c r="T12">
-        <v>0.004503600022316775</v>
+        <v>0.007331250279949909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H13">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I13">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J13">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P13">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q13">
-        <v>4.099693968349</v>
+        <v>7.463135291838332</v>
       </c>
       <c r="R13">
-        <v>36.897245715141</v>
+        <v>67.16821762654499</v>
       </c>
       <c r="S13">
-        <v>0.02044417313405597</v>
+        <v>0.04189911264143287</v>
       </c>
       <c r="T13">
-        <v>0.02339211529743373</v>
+        <v>0.04506541072149835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H14">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I14">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J14">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N14">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O14">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P14">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q14">
-        <v>3.110610247238001</v>
+        <v>7.301157894076667</v>
       </c>
       <c r="R14">
-        <v>27.99549222514201</v>
+        <v>65.71042104669</v>
       </c>
       <c r="S14">
-        <v>0.01551185404034253</v>
+        <v>0.04098974828331864</v>
       </c>
       <c r="T14">
-        <v>0.0177485817503771</v>
+        <v>0.04408732608651769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H15">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I15">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J15">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N15">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O15">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P15">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q15">
-        <v>4.908443573253</v>
+        <v>4.4817365836225</v>
       </c>
       <c r="R15">
-        <v>29.450661439518</v>
+        <v>26.890419501735</v>
       </c>
       <c r="S15">
-        <v>0.02447721000763883</v>
+        <v>0.02516111240161843</v>
       </c>
       <c r="T15">
-        <v>0.01867112990756898</v>
+        <v>0.0180416846261551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H16">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I16">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J16">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N16">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O16">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P16">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q16">
-        <v>2.065953413838</v>
+        <v>8.679885073481667</v>
       </c>
       <c r="R16">
-        <v>18.593580724542</v>
+        <v>78.11896566133501</v>
       </c>
       <c r="S16">
-        <v>0.01030240540037366</v>
+        <v>0.04873012054413903</v>
       </c>
       <c r="T16">
-        <v>0.01178795803509383</v>
+        <v>0.05241263497924643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H17">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I17">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J17">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N17">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O17">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P17">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q17">
-        <v>0.5965609780833333</v>
+        <v>0.4457195970719999</v>
       </c>
       <c r="R17">
-        <v>3.5793658685</v>
+        <v>2.674317582432</v>
       </c>
       <c r="S17">
-        <v>0.00297490398432569</v>
+        <v>0.002502333787870229</v>
       </c>
       <c r="T17">
-        <v>0.002269246320824764</v>
+        <v>0.001794289390290345</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H18">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I18">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J18">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.133219</v>
       </c>
       <c r="O18">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P18">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q18">
-        <v>3.098592928351666</v>
+        <v>2.739851449841333</v>
       </c>
       <c r="R18">
-        <v>18.59155757010999</v>
+        <v>16.439108699048</v>
       </c>
       <c r="S18">
-        <v>0.01545192660433971</v>
+        <v>0.01538191926431205</v>
       </c>
       <c r="T18">
-        <v>0.0117866753956767</v>
+        <v>0.01102954956370876</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H19">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I19">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J19">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N19">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O19">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P19">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q19">
-        <v>2.351032781803334</v>
+        <v>2.680386628322667</v>
       </c>
       <c r="R19">
-        <v>14.10619669082</v>
+        <v>16.082319769936</v>
       </c>
       <c r="S19">
-        <v>0.01172402662396407</v>
+        <v>0.01504807522188419</v>
       </c>
       <c r="T19">
-        <v>0.008943046371196559</v>
+        <v>0.0107901679007813</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H20">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I20">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J20">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N20">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O20">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P20">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q20">
-        <v>3.709854604444999</v>
+        <v>1.645326259846</v>
       </c>
       <c r="R20">
-        <v>14.83941841778</v>
+        <v>6.581305039384</v>
       </c>
       <c r="S20">
-        <v>0.0185001393813773</v>
+        <v>0.009237097760854625</v>
       </c>
       <c r="T20">
-        <v>0.00940789427090289</v>
+        <v>0.004415618355876906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H21">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I21">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J21">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N21">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O21">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P21">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q21">
-        <v>1.56146987747</v>
+        <v>3.186542220270667</v>
       </c>
       <c r="R21">
-        <v>9.368819264819999</v>
+        <v>19.119253321624</v>
       </c>
       <c r="S21">
-        <v>0.007786669142883765</v>
+        <v>0.01788970535879366</v>
       </c>
       <c r="T21">
-        <v>0.005939643900128717</v>
+        <v>0.01282774851073084</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H22">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I22">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J22">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N22">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O22">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P22">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q22">
-        <v>1.999312497744445</v>
+        <v>0.037704604568</v>
       </c>
       <c r="R22">
-        <v>17.9938124797</v>
+        <v>0.339341441112</v>
       </c>
       <c r="S22">
-        <v>0.009970083418063016</v>
+        <v>0.0002116790614291785</v>
       </c>
       <c r="T22">
-        <v>0.01140771697202374</v>
+        <v>0.000227675557859284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H23">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I23">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J23">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.133219</v>
       </c>
       <c r="O23">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P23">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q23">
-        <v>10.38461413782022</v>
+        <v>0.2317713113131111</v>
       </c>
       <c r="R23">
-        <v>93.46152724038198</v>
+        <v>2.085941801818</v>
       </c>
       <c r="S23">
-        <v>0.05178553594561595</v>
+        <v>0.001301197405650758</v>
       </c>
       <c r="T23">
-        <v>0.05925273766936246</v>
+        <v>0.001399528338874962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H24">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I24">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J24">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N24">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O24">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P24">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q24">
-        <v>7.879243524053779</v>
+        <v>0.2267410241195556</v>
       </c>
       <c r="R24">
-        <v>70.91319171648401</v>
+        <v>2.040669217076</v>
       </c>
       <c r="S24">
-        <v>0.03929186422566455</v>
+        <v>0.001272956651396707</v>
       </c>
       <c r="T24">
-        <v>0.0449575442445644</v>
+        <v>0.001369153442861408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H25">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I25">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J25">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N25">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O25">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P25">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q25">
-        <v>12.43319450647266</v>
+        <v>0.1391825183823333</v>
       </c>
       <c r="R25">
-        <v>74.59916703883599</v>
+        <v>0.835095110294</v>
       </c>
       <c r="S25">
-        <v>0.0620013062102011</v>
+        <v>0.000781390633745731</v>
       </c>
       <c r="T25">
-        <v>0.04729437882537895</v>
+        <v>0.0005602933272125579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H26">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I26">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J26">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N26">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O26">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P26">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q26">
-        <v>5.233105006142667</v>
+        <v>0.2695580700148889</v>
       </c>
       <c r="R26">
-        <v>47.097945055284</v>
+        <v>2.426022630134</v>
       </c>
       <c r="S26">
-        <v>0.02609621732749984</v>
+        <v>0.001513337692177769</v>
       </c>
       <c r="T26">
-        <v>0.02985915451551724</v>
+        <v>0.001627699976416095</v>
       </c>
     </row>
   </sheetData>
